--- a/output/2023-03-21/template_20230321.xlsx
+++ b/output/2023-03-21/template_20230321.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>LIST</t>
   </si>
@@ -36,148 +36,19 @@
     <t>VIEW_TABLE</t>
   </si>
   <si>
-    <t>P1VTXEDW.VUL_CCHSSEQ_01</t>
-  </si>
-  <si>
-    <t>P1VEULQ.VLQ_06_GL_PROD_SEGMENT</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.LEAD_QUOTATION_ACCOUNT</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_01_ACCRU_GRP_DETAIL_HS</t>
-  </si>
-  <si>
-    <t>P1VTPBIT.TVBI_BI_RC_SUB_LEV</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_PLAN_RATE_HS</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_AGREEMENT_INFO_ICORE</t>
-  </si>
-  <si>
-    <t>P1VSGMF.B2MTX_PCOEC_H_1_0</t>
-  </si>
-  <si>
-    <t>P1VSGMF.B2MTX_PCOEC_T_1_0_T1</t>
-  </si>
-  <si>
-    <t>P1VEUDMS.VDMS_ESL_SEC_FEATURE</t>
-  </si>
-  <si>
-    <t>P1VEUCDD.VCDD_PRODUCT</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.FACT_B2MTX_MERCH_TRANS_TEMP_D</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_08_LIMIT_INFO_HS</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_27_ITEM_ORIG_MAP_HS</t>
-  </si>
-  <si>
-    <t>P1VTPSL.TVSL_OUTSTANDING</t>
-  </si>
-  <si>
-    <t>P1VEUOBM.VOBM_02_BALANCE_INFO_HS</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_B2K</t>
-  </si>
-  <si>
-    <t>P1VEUDMS.VDMS_ESL_DAILY_NOTIONAL</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_ST3</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VIM_IMACTM10_ACCOPRODHIST_01</t>
-  </si>
-  <si>
-    <t>P1VTPBIT.TVBI_BI_ORG_SUB_LEV</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_IM</t>
-  </si>
-  <si>
-    <t>P1VTTEDW.GN_MT_EVENT_LOG</t>
-  </si>
-  <si>
-    <t>P1VSTEDW.S1_HITCOUNT_1_0</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VESL_EDW_ACCT_STATS_TR</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VEPP_B2B_EVENT_01</t>
-  </si>
-  <si>
-    <t>P1VTXEDW.VLOS_PR10_QUOPROFEATUR_01</t>
-  </si>
-  <si>
-    <t>RSK_DSF_DAILY</t>
+    <t>P1VEULQ.VLQ_01_IM_ST_DAILY</t>
+  </si>
+  <si>
+    <t>P1VEULQ.VLQ_04_GL_OC_SEGMENT</t>
+  </si>
+  <si>
+    <t>P1VEULQ.VLQ_03_GL_RC_SEGMENT</t>
   </si>
   <si>
     <t>LQ_DSF_DAILY</t>
   </si>
   <si>
-    <t>BI_DSF_LEAD_DAILY</t>
-  </si>
-  <si>
-    <t>OBM_DSF_DAILY_HS</t>
-  </si>
-  <si>
-    <t>BI_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>EDW_ESL_DAILY</t>
-  </si>
-  <si>
-    <t>B2MTX_SRC_DAILY</t>
-  </si>
-  <si>
-    <t>DMS_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>CDD_DSF_PER</t>
-  </si>
-  <si>
-    <t>SL_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>EDW_ESL_WEEKLY</t>
-  </si>
-  <si>
-    <t>IM_SRC_DAILY</t>
-  </si>
-  <si>
-    <t>CHYO_DSF_DAILY</t>
-  </si>
-  <si>
-    <t>S1_SRC_DAILY</t>
-  </si>
-  <si>
-    <t>EPP_SRC_MONTHLY</t>
-  </si>
-  <si>
-    <t>LOS_SRC_DAILY</t>
-  </si>
-  <si>
-    <t>MVP6</t>
-  </si>
-  <si>
     <t>MVP2</t>
-  </si>
-  <si>
-    <t>MVP4</t>
-  </si>
-  <si>
-    <t>MVP1</t>
-  </si>
-  <si>
-    <t>MVP3</t>
   </si>
   <si>
     <t>DEPLOY</t>
@@ -568,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -601,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -612,274 +483,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
